--- a/notebooks/city_tram_new_nodes_transfer_all.xlsx
+++ b/notebooks/city_tram_new_nodes_transfer_all.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'41', '245', '40', '37', '240', '3', '22', '1'}</t>
+          <t>{'22', '240', '245', '1', '37', '41', '40', '3'}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'41', '245', '37', '3', '1'}</t>
+          <t>{'245', '37', '1', '41', '3'}</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'41', '245', '37', '3', '1'}</t>
+          <t>{'245', '37', '1', '41', '3'}</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'7', '19', '1'}</t>
+          <t>{'19', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'54', '19', '53', '1', '7', '246', '51'}</t>
+          <t>{'54', '53', '19', '7', '1', '246', '51'}</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'7', '4', '19', '1'}</t>
+          <t>{'19', '4', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'7', '19', '1'}</t>
+          <t>{'19', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'12', '19', '2', '1', '7', '5'}</t>
+          <t>{'19', '7', '1', '5', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'17', '15', '1', '247'}</t>
+          <t>{'247', '15', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'50', '17', '51', '1'}</t>
+          <t>{'50', '51', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'17', '18', '2', '1', '63'}</t>
+          <t>{'63', '17', '1', '18', '2'}</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'17', '18', '2', '1', '63'}</t>
+          <t>{'63', '17', '1', '18', '2'}</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'50', '17', '51', '1'}</t>
+          <t>{'50', '51', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'17', '15', '1', '247'}</t>
+          <t>{'247', '15', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'12', '19', '2', '1', '7', '5'}</t>
+          <t>{'19', '7', '1', '5', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'7', '19', '1'}</t>
+          <t>{'19', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'7', '4', '19', '1'}</t>
+          <t>{'19', '4', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'54', '19', '53', '1', '7', '246', '51'}</t>
+          <t>{'54', '53', '19', '7', '1', '246', '51'}</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3089,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'7', '19', '1'}</t>
+          <t>{'19', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'41', '245', '37', '3', '1'}</t>
+          <t>{'245', '37', '1', '41', '3'}</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'41', '245', '37', '3', '1'}</t>
+          <t>{'245', '37', '1', '41', '3'}</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'41', '245', '40', '37', '240', '3', '22', '1'}</t>
+          <t>{'22', '240', '245', '1', '37', '41', '40', '3'}</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'17', '2', '12', '13'}</t>
+          <t>{'12', '2', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '17', '24', '2', '4'}</t>
+          <t>{'14', '24', '13', '17', '4', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'2', '12'}</t>
+          <t>{'12', '2'}</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'2', '12'}</t>
+          <t>{'12', '2'}</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3665,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'5', '2', '12'}</t>
+          <t>{'12', '5', '2'}</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'5', '3', '12'}</t>
+          <t>{'12', '5', '3'}</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'5', '24', '3', '12'}</t>
+          <t>{'12', '5', '3', '24'}</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'24', '3', '12'}</t>
+          <t>{'12', '3', '24'}</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'246', '12'}</t>
+          <t>{'12', '246'}</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'246', '65', '12'}</t>
+          <t>{'12', '246', '65'}</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'62', '65', '12', '245'}</t>
+          <t>{'12', '245', '65', '62'}</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'54', '51', '53', '12'}</t>
+          <t>{'12', '54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'62', '65', '12', '245'}</t>
+          <t>{'12', '245', '65', '62'}</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'246', '65', '12'}</t>
+          <t>{'12', '246', '65'}</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'246', '12'}</t>
+          <t>{'12', '246'}</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'24', '3', '12'}</t>
+          <t>{'12', '3', '24'}</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'5', '24', '3', '12'}</t>
+          <t>{'12', '5', '3', '24'}</t>
         </is>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'5', '3', '12'}</t>
+          <t>{'12', '5', '3'}</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'5', '2', '12'}</t>
+          <t>{'12', '5', '2'}</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'12', '19', '2', '1', '7', '5'}</t>
+          <t>{'19', '7', '1', '5', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'2', '12'}</t>
+          <t>{'12', '2'}</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'2', '12'}</t>
+          <t>{'12', '2'}</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'17', '2', '12', '13'}</t>
+          <t>{'12', '2', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '13'}</t>
+          <t>{'19', '7', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'18', '247', '19', '13'}</t>
+          <t>{'19', '18', '247', '13'}</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'18', '247', '13'}</t>
+          <t>{'247', '18', '13'}</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'13', '18', '7', '247', '15'}</t>
+          <t>{'13', '247', '15', '7', '18'}</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'13', '18', '7', '247', '15'}</t>
+          <t>{'13', '247', '15', '7', '18'}</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'18', '247', '13'}</t>
+          <t>{'247', '18', '13'}</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'18', '247', '19', '13'}</t>
+          <t>{'19', '18', '247', '13'}</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '13'}</t>
+          <t>{'19', '7', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '17', '24', '2', '4'}</t>
+          <t>{'14', '24', '13', '17', '4', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'14', '4', '52', '24'}</t>
+          <t>{'14', '52', '4', '24'}</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'14', '54', '53', '51'}</t>
+          <t>{'14', '54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'14', '19', '7'}</t>
+          <t>{'19', '14', '7'}</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'14', '65', '22'}</t>
+          <t>{'22', '14', '65'}</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'14', '245', '40', '37', '240', '3', '22'}</t>
+          <t>{'22', '14', '240', '245', '37', '40', '3'}</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'14', '37', '3', '245'}</t>
+          <t>{'14', '3', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'14', '37', '3', '245'}</t>
+          <t>{'14', '3', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'14', '37', '3', '245'}</t>
+          <t>{'14', '3', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'14', '37', '3', '245'}</t>
+          <t>{'14', '3', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'14', '245', '40', '37', '240', '3', '22'}</t>
+          <t>{'22', '14', '240', '245', '37', '40', '3'}</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'14', '65', '22'}</t>
+          <t>{'22', '14', '65'}</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'14', '19', '7'}</t>
+          <t>{'19', '14', '7'}</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'14', '54', '53', '51'}</t>
+          <t>{'14', '54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'14', '4', '52', '24'}</t>
+          <t>{'14', '52', '4', '24'}</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '17', '24', '2', '4'}</t>
+          <t>{'14', '24', '13', '17', '4', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '5'}</t>
+          <t>{'19', '5', '7', '17'}</t>
         </is>
       </c>
     </row>
@@ -9169,7 +9169,7 @@
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '13'}</t>
+          <t>{'19', '7', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'17', '18', '7', '247', '15'}</t>
+          <t>{'247', '15', '7', '17', '18'}</t>
         </is>
       </c>
     </row>
@@ -9397,7 +9397,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'17', '15', '247'}</t>
+          <t>{'247', '15', '17'}</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'369', '17', '63'}</t>
+          <t>{'369', '63', '17'}</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>{'369', '17', '63'}</t>
+          <t>{'369', '63', '17'}</t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>{'17', '15', '247'}</t>
+          <t>{'247', '15', '17'}</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>{'17', '18', '7', '247', '15'}</t>
+          <t>{'247', '15', '7', '17', '18'}</t>
         </is>
       </c>
     </row>
@@ -10225,7 +10225,7 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '13'}</t>
+          <t>{'19', '7', '17', '13'}</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
-          <t>{'17', '5'}</t>
+          <t>{'5', '17'}</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '5'}</t>
+          <t>{'19', '5', '7', '17'}</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>{'231', '61', '19', '36', '22', '369', '50', '15', '51'}</t>
+          <t>{'22', '231', '19', '369', '15', '61', '51', '50', '36'}</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>{'21', '247', '19'}</t>
+          <t>{'19', '247', '21'}</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr">
         <is>
-          <t>{'7', '17', '19', '5'}</t>
+          <t>{'19', '5', '7', '17'}</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>{'41', '19', '37', '245'}</t>
+          <t>{'19', '41', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>{'240', '41', '19', '40'}</t>
+          <t>{'19', '40', '240', '41'}</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>{'240', '41', '19', '40'}</t>
+          <t>{'19', '40', '240', '41'}</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>{'41', '19'}</t>
+          <t>{'19', '41'}</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>{'41', '19', '37', '245'}</t>
+          <t>{'19', '41', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -11937,7 +11937,7 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>{'12', '19', '2', '1', '7', '5'}</t>
+          <t>{'19', '7', '1', '5', '12', '2'}</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>{'21', '247', '19'}</t>
+          <t>{'19', '247', '21'}</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '15', '51'}</t>
+          <t>{'24', '15', '62', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>{'2', '15', '62'}</t>
+          <t>{'15', '2', '62'}</t>
         </is>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
       <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
-          <t>{'50', '2', '51'}</t>
+          <t>{'50', '51', '2'}</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>{'17', '18', '2', '1', '63'}</t>
+          <t>{'63', '17', '1', '18', '2'}</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>{'369', '247', '2'}</t>
+          <t>{'247', '369', '2'}</t>
         </is>
       </c>
     </row>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>{'369', '247', '2'}</t>
+          <t>{'247', '369', '2'}</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>{'17', '18', '2', '1', '63'}</t>
+          <t>{'63', '17', '1', '18', '2'}</t>
         </is>
       </c>
     </row>
@@ -13321,7 +13321,7 @@
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr">
         <is>
-          <t>{'50', '2', '51'}</t>
+          <t>{'50', '51', '2'}</t>
         </is>
       </c>
     </row>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>{'2', '15', '62'}</t>
+          <t>{'15', '2', '62'}</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '15', '51'}</t>
+          <t>{'24', '15', '62', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -13709,7 +13709,7 @@
       <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>{'5', '246', '65', '24'}</t>
+          <t>{'246', '5', '24', '65'}</t>
         </is>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '15', '51'}</t>
+          <t>{'24', '15', '62', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>{'62', '246', '24', '461'}</t>
+          <t>{'246', '461', '24', '62'}</t>
         </is>
       </c>
     </row>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>{'62', '246', '24', '461'}</t>
+          <t>{'246', '461', '24', '62'}</t>
         </is>
       </c>
     </row>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '15', '51'}</t>
+          <t>{'24', '15', '62', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>{'246', '65', '24'}</t>
+          <t>{'246', '24', '65'}</t>
         </is>
       </c>
     </row>
@@ -15061,7 +15061,7 @@
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="inlineStr">
         <is>
-          <t>{'5', '24', '3', '12'}</t>
+          <t>{'12', '5', '3', '24'}</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -15285,7 +15285,7 @@
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>{'25', '5', '463'}</t>
+          <t>{'463', '25', '5'}</t>
         </is>
       </c>
     </row>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>{'25', '5', '463', '461'}</t>
+          <t>{'463', '25', '5', '461'}</t>
         </is>
       </c>
     </row>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>{'62', '25', '65', '5', '15'}</t>
+          <t>{'25', '15', '62', '5', '65'}</t>
         </is>
       </c>
     </row>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>{'62', '25', '65', '5', '15'}</t>
+          <t>{'25', '15', '62', '5', '65'}</t>
         </is>
       </c>
     </row>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>{'25', '5', '463', '461'}</t>
+          <t>{'463', '25', '5', '461'}</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16401,7 @@
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>{'25', '5', '463'}</t>
+          <t>{'463', '25', '5'}</t>
         </is>
       </c>
     </row>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>{'37', '26', '245'}</t>
+          <t>{'26', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -17481,7 +17481,7 @@
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="inlineStr">
         <is>
-          <t>{'7', '26'}</t>
+          <t>{'26', '7'}</t>
         </is>
       </c>
     </row>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>{'43', '246', '26'}</t>
+          <t>{'26', '246', '43'}</t>
         </is>
       </c>
     </row>
@@ -17649,7 +17649,7 @@
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>{'43', '246', '26'}</t>
+          <t>{'26', '246', '43'}</t>
         </is>
       </c>
     </row>
@@ -17813,7 +17813,7 @@
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="inlineStr">
         <is>
-          <t>{'7', '26'}</t>
+          <t>{'26', '7'}</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>{'37', '26', '245'}</t>
+          <t>{'26', '245', '37'}</t>
         </is>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>{'41', '245', '40', '37', '240', '3', '22', '1'}</t>
+          <t>{'22', '240', '245', '1', '37', '41', '40', '3'}</t>
         </is>
       </c>
     </row>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>{'4', '52', '62'}</t>
+          <t>{'52', '4', '62'}</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>{'4', '52', '65', '245'}</t>
+          <t>{'52', '4', '245', '65'}</t>
         </is>
       </c>
     </row>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -20121,7 +20121,7 @@
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>{'4', '246'}</t>
+          <t>{'246', '4'}</t>
         </is>
       </c>
     </row>
@@ -20229,7 +20229,7 @@
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="inlineStr">
         <is>
-          <t>{'7', '4', '19', '1'}</t>
+          <t>{'19', '4', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -20285,7 +20285,7 @@
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -20401,7 +20401,7 @@
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -20461,7 +20461,7 @@
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '24', '53', '2', '52', '4', '51'}</t>
+          <t>{'14', '54', '24', '53', '13', '17', '4', '51', '12', '26', '52', '2'}</t>
         </is>
       </c>
     </row>
@@ -20517,7 +20517,7 @@
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -20573,7 +20573,7 @@
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="inlineStr">
         <is>
-          <t>{'4', '2', '12'}</t>
+          <t>{'12', '4', '2'}</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="inlineStr">
         <is>
-          <t>{'7', '4', '19', '1'}</t>
+          <t>{'19', '4', '7', '1'}</t>
         </is>
       </c>
     </row>
@@ -20685,7 +20685,7 @@
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>{'4', '246'}</t>
+          <t>{'246', '4'}</t>
         </is>
       </c>
     </row>
@@ -20849,7 +20849,7 @@
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>{'12', '245', '62', '65', '4'}</t>
+          <t>{'245', '62', '4', '65', '12'}</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>{'4', '52', '65', '245'}</t>
+          <t>{'52', '4', '245', '65'}</t>
         </is>
       </c>
     </row>
@@ -21089,7 +21089,7 @@
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>{'4', '52', '62'}</t>
+          <t>{'52', '4', '62'}</t>
         </is>
       </c>
     </row>
@@ -21257,7 +21257,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>{'5', '246', '15', '65'}</t>
+          <t>{'246', '15', '5', '65'}</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>{'5', '246', '65', '24'}</t>
+          <t>{'246', '5', '24', '65'}</t>
         </is>
       </c>
     </row>
@@ -21737,7 +21737,7 @@
       <c r="M382" t="inlineStr"/>
       <c r="N382" t="inlineStr">
         <is>
-          <t>{'17', '5'}</t>
+          <t>{'5', '17'}</t>
         </is>
       </c>
     </row>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>{'5', '246', '15', '65'}</t>
+          <t>{'246', '15', '5', '65'}</t>
         </is>
       </c>
     </row>
@@ -21901,7 +21901,7 @@
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>{'7', '65', '246', '43'}</t>
+          <t>{'246', '43', '7', '65'}</t>
         </is>
       </c>
     </row>
@@ -21957,7 +21957,7 @@
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>{'7', '65', '246', '43'}</t>
+          <t>{'246', '43', '7', '65'}</t>
         </is>
       </c>
     </row>
@@ -22013,7 +22013,7 @@
       <c r="M387" t="inlineStr"/>
       <c r="N387" t="inlineStr">
         <is>
-          <t>{'7', '26'}</t>
+          <t>{'26', '7'}</t>
         </is>
       </c>
     </row>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>{'7', '22'}</t>
+          <t>{'22', '7'}</t>
         </is>
       </c>
     </row>
@@ -22177,7 +22177,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>{'7', '22'}</t>
+          <t>{'22', '7'}</t>
         </is>
       </c>
     </row>
@@ -22233,7 +22233,7 @@
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr">
         <is>
-          <t>{'14', '19', '7'}</t>
+          <t>{'19', '14', '7'}</t>
         </is>
       </c>
     </row>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>{'17', '18', '7', '247', '15'}</t>
+          <t>{'247', '15', '7', '17', '18'}</t>
         </is>
       </c>
     </row>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>{'7', '247', '15', '18'}</t>
+          <t>{'247', '18', '15', '7'}</t>
         </is>
       </c>
     </row>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>{'13', '18', '7', '247', '15'}</t>
+          <t>{'13', '247', '15', '7', '18'}</t>
         </is>
       </c>
     </row>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>{'7', '15'}</t>
+          <t>{'15', '7'}</t>
         </is>
       </c>
     </row>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>{'7', '21', '15', '247'}</t>
+          <t>{'247', '15', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -22645,7 +22645,7 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>{'7', '50', '21', '51'}</t>
+          <t>{'50', '51', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>{'7', '21'}</t>
+          <t>{'21', '7'}</t>
         </is>
       </c>
     </row>
@@ -22757,7 +22757,7 @@
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>{'7', '21'}</t>
+          <t>{'21', '7'}</t>
         </is>
       </c>
     </row>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>{'7', '21', '369'}</t>
+          <t>{'369', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>{'7', '369'}</t>
+          <t>{'369', '7'}</t>
         </is>
       </c>
     </row>
@@ -22977,7 +22977,7 @@
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>{'7', '369'}</t>
+          <t>{'369', '7'}</t>
         </is>
       </c>
     </row>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>{'7', '21', '369'}</t>
+          <t>{'369', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -23089,7 +23089,7 @@
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>{'7', '21'}</t>
+          <t>{'21', '7'}</t>
         </is>
       </c>
     </row>
@@ -23145,7 +23145,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>{'7', '21'}</t>
+          <t>{'21', '7'}</t>
         </is>
       </c>
     </row>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>{'7', '50', '21', '51'}</t>
+          <t>{'50', '51', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -23261,7 +23261,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>{'7', '21', '15', '247'}</t>
+          <t>{'247', '15', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -23325,7 +23325,7 @@
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>{'13', '19', '18', '7', '50', '247', '15', '51'}</t>
+          <t>{'13', '19', '247', '15', '7', '18', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -23385,7 +23385,7 @@
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>{'13', '18', '7', '247', '15'}</t>
+          <t>{'13', '247', '15', '7', '18'}</t>
         </is>
       </c>
     </row>
@@ -23441,7 +23441,7 @@
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>{'7', '247', '15', '18'}</t>
+          <t>{'247', '18', '15', '7'}</t>
         </is>
       </c>
     </row>
@@ -23497,7 +23497,7 @@
       <c r="M413" t="inlineStr"/>
       <c r="N413" t="inlineStr">
         <is>
-          <t>{'14', '19', '7'}</t>
+          <t>{'19', '14', '7'}</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>{'7', '22'}</t>
+          <t>{'22', '7'}</t>
         </is>
       </c>
     </row>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>{'7', '22'}</t>
+          <t>{'22', '7'}</t>
         </is>
       </c>
     </row>
@@ -23717,7 +23717,7 @@
       <c r="M417" t="inlineStr"/>
       <c r="N417" t="inlineStr">
         <is>
-          <t>{'7', '26'}</t>
+          <t>{'26', '7'}</t>
         </is>
       </c>
     </row>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>{'7', '65', '246', '43'}</t>
+          <t>{'246', '43', '7', '65'}</t>
         </is>
       </c>
     </row>
@@ -23829,7 +23829,7 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>{'7', '65', '246', '43'}</t>
+          <t>{'246', '43', '7', '65'}</t>
         </is>
       </c>
     </row>
